--- a/src/test/resources/DefinitionData/DefinitionStorage_2.xlsx
+++ b/src/test/resources/DefinitionData/DefinitionStorage_2.xlsx
@@ -26,7 +26,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>D0.04039067246480155</t>
+    <t>D0.9894230751189594</t>
   </si>
   <si>
     <t>Automobile</t>
@@ -35,13 +35,13 @@
     <t>India</t>
   </si>
   <si>
-    <t>Sat, 10 Dec 2022 21:22:08 +0530</t>
+    <t>Sat, 24 Dec 2022 00:45:23 -0800</t>
   </si>
   <si>
-    <t>D0.22709280606726223</t>
+    <t>D0.6966197969744036</t>
   </si>
   <si>
-    <t>D0.3037386565467328</t>
+    <t>D0.6600436572746871</t>
   </si>
 </sst>
 </file>
